--- a/公募リスト/公募期限リスト.xlsx
+++ b/公募リスト/公募期限リスト.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/imadatakamasa/mac_git/es-allgenre/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/imadatakamasa/mac_git/es-allgenre/公募リスト/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77BAFD6B-6E48-444E-92F1-EFFEC64EADC4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25A77991-52C5-8F42-AC1E-4780ACCB4E12}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="460" windowWidth="28300" windowHeight="16480" xr2:uid="{23BD56C3-722E-824F-BAB8-9AE40E38398E}"/>
   </bookViews>
@@ -45,10 +45,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>締め切り</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>文字数</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -83,13 +79,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>年</t>
-    <rPh sb="0" eb="1">
-      <t>ネn</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>[リンク](http://hoshiaward.nikkei.co.jp/)</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -133,6 +122,14 @@
   </si>
   <si>
     <t>[リンク](https://cobalt.shueisha.co.jp/write/newface-award-apply/)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2022年</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〆切</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -503,10 +500,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{298E7D3A-3C48-8141-AEEE-69696021C261}">
-  <dimension ref="A2:H4"/>
+  <dimension ref="A2:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -521,83 +518,83 @@
   <sheetData>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="2">
-        <v>2022</v>
-      </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="F3" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="G3" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="H3" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="2"/>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E4" t="s">
         <v>16</v>
       </c>
-      <c r="D4" t="s">
+      <c r="F4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="2"/>
+      <c r="B5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
         <v>2</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" t="s">
         <v>7</v>
       </c>
-      <c r="F4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="G5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" t="s">
         <v>10</v>
-      </c>
-      <c r="H4" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A4:A5"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/公募リスト/公募期限リスト.xlsx
+++ b/公募リスト/公募期限リスト.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/imadatakamasa/mac_git/es-allgenre/公募リスト/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25A77991-52C5-8F42-AC1E-4780ACCB4E12}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82538A3F-E92D-AA4F-A083-C545847BC876}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="460" windowWidth="28300" windowHeight="16480" xr2:uid="{23BD56C3-722E-824F-BAB8-9AE40E38398E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="42">
   <si>
     <t>公募名</t>
     <rPh sb="0" eb="2">
@@ -87,13 +87,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>8/10(金)</t>
-    <rPh sb="0" eb="1">
-      <t>キン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Cobalt編集部</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -130,6 +123,132 @@
   </si>
   <si>
     <t>〆切</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>8/10(水)</t>
+    <rPh sb="0" eb="1">
+      <t>キン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>matotte.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ファッションSFウェブジン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4000〜9999文字</t>
+    <rPh sb="0" eb="2">
+      <t>モz</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>特集「ジェンダー・セックス・アイデンティティ」に合わせたもの</t>
+    <rPh sb="0" eb="2">
+      <t>：</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[リンク](https://twitter.com/sfmatotte/status/1489765964451221506?s=20&amp;t=FECwtbM7JYCJotYUSJGSWw)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>7/15(金)</t>
+    <rPh sb="0" eb="1">
+      <t>キン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>8/15(月)</t>
+    <rPh sb="0" eb="1">
+      <t>ゲt</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>特集「ルッキズム・エイジズム・レイシズム」に合わせたもの</t>
+    <rPh sb="0" eb="2">
+      <t>「</t>
+    </rPh>
+    <rPh sb="81" eb="83">
+      <t>レイs</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10/15(土)</t>
+    <rPh sb="0" eb="1">
+      <t>do</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">群像新人文学賞 </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>講談社</t>
+    <rPh sb="0" eb="1">
+      <t>sy</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[リンク](http://gunzo.kodansha.co.jp/awards)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>原稿用紙70枚〜250枚</t>
+    <rPh sb="0" eb="4">
+      <t>〜</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>特に記述なし(新しいことをして欲しいっぽい)</t>
+    <rPh sb="0" eb="1">
+      <t>（</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>受付はひとり３作まで</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>文藝賞　短編部門(今年限定)</t>
+    <rPh sb="0" eb="2">
+      <t>タンペn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>河出書房</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>原稿用紙20枚〜50枚</t>
+    <rPh sb="0" eb="1">
+      <t>ゲンコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[リンク](https://www.kawade.co.jp/np/bungei.html#script)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>12/31(土)</t>
+    <rPh sb="0" eb="1">
+      <t>ドウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -184,7 +303,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -500,16 +619,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{298E7D3A-3C48-8141-AEEE-69696021C261}">
-  <dimension ref="A2:H5"/>
+  <dimension ref="A2:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B3" sqref="B3:H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
     <col min="2" max="2" width="13.28515625" customWidth="1"/>
-    <col min="3" max="3" width="20.28515625" customWidth="1"/>
+    <col min="3" max="3" width="22.85546875" customWidth="1"/>
     <col min="5" max="5" width="7.85546875" customWidth="1"/>
     <col min="6" max="6" width="16.140625" customWidth="1"/>
     <col min="7" max="7" width="68.85546875" customWidth="1"/>
@@ -518,12 +637,12 @@
   <sheetData>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="B3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
         <v>0</v>
@@ -545,57 +664,147 @@
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="2"/>
-      <c r="B4" t="s">
-        <v>12</v>
+      <c r="B4" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="F4" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="G4" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="H4" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="2"/>
-      <c r="B5" s="1" t="s">
-        <v>11</v>
+      <c r="B5" t="s">
+        <v>21</v>
       </c>
       <c r="C5" t="s">
         <v>14</v>
       </c>
       <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="2"/>
+      <c r="B6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="2"/>
+      <c r="B7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s">
         <v>2</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E7" t="s">
         <v>6</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F7" t="s">
         <v>7</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G7" t="s">
         <v>9</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H7" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="B8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" t="s">
+        <v>35</v>
+      </c>
+      <c r="H8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="B9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" t="s">
+        <v>39</v>
+      </c>
+      <c r="G9" t="s">
+        <v>36</v>
+      </c>
+      <c r="H9" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A4:A5"/>
-  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
